--- a/DesignDocs/BeanCounterPlanning.xlsx
+++ b/DesignDocs/BeanCounterPlanning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="21500" windowHeight="15440" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="23600" windowHeight="14760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
